--- a/data/trans_dic/P15_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,22 +681,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -710,47 +711,47 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>43,59%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,24</t>
+          <t>5,96; 10,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,57</t>
+          <t>5,59; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 25,41</t>
+          <t>18,49; 25,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,44</t>
+          <t>23,58; 30,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,82; 45,58</t>
+          <t>37,55; 45,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,07</t>
+          <t>6,3; 10,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,19</t>
+          <t>5,39; 9,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,23</t>
+          <t>15,98; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,14; 34,82</t>
+          <t>28,44; 34,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,32; 49,82</t>
+          <t>42,31; 49,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,55</t>
+          <t>6,75; 9,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,02</t>
+          <t>6,03; 9,3</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 22,39</t>
+          <t>17,84; 22,01</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,85; 31,65</t>
+          <t>26,73; 31,65</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>40,54; 45,96</t>
+          <t>40,95; 46,55</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,51</t>
+          <t>3,13; 6,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,41</t>
+          <t>2,36; 5,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,26</t>
+          <t>10,64; 17,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,76</t>
+          <t>22,9; 31,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,7; 46,61</t>
+          <t>32,85; 46,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,56</t>
+          <t>4,84; 8,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,36</t>
+          <t>3,55; 7,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 21,85</t>
+          <t>16,08; 22,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 33,71</t>
+          <t>25,72; 33,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,48; 48,15</t>
+          <t>33,86; 47,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,9</t>
+          <t>4,25; 6,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,11</t>
+          <t>3,37; 5,86</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,69</t>
+          <t>14,39; 18,72</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 31,03</t>
+          <t>25,39; 31,15</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35,71; 45,18</t>
+          <t>35,4; 44,73</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,47</t>
+          <t>2,88; 11,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 25,5</t>
+          <t>13,19; 26,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 36,15</t>
+          <t>19,17; 34,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 10,59</t>
+          <t>3,02; 10,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,99</t>
+          <t>1,64; 8,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,63; 29,43</t>
+          <t>17,68; 30,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 37,06</t>
+          <t>24,18; 38,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,13</t>
+          <t>3,75; 9,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,94</t>
+          <t>1,41; 5,6</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 25,61</t>
+          <t>16,64; 25,94</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 33,34</t>
+          <t>23,3; 33,13</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,22 +1196,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1225,17 +1226,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1245,22 +1246,22 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>42,81%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,73</t>
+          <t>5,0; 7,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,83</t>
+          <t>4,11; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,35</t>
+          <t>16,16; 20,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 28,89</t>
+          <t>24,37; 29,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,78; 44,56</t>
+          <t>37,7; 44,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,68</t>
+          <t>5,96; 8,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,62</t>
+          <t>4,93; 7,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 20,97</t>
+          <t>17,35; 21,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 33,11</t>
+          <t>28,04; 32,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,6; 47,7</t>
+          <t>41,69; 48,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,77</t>
+          <t>5,83; 7,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,75</t>
+          <t>4,88; 6,75</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,09</t>
+          <t>17,26; 20,15</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>26,87; 30,39</t>
+          <t>26,83; 30,34</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,3; 45,03</t>
+          <t>40,41; 45,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>697.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>128327</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126731</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>358572</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>443579</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>94673</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143916</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>130609</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>336455</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>572877</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>109044</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>272243</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>257340</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>695027</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1016456</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>203717</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97693; 165546</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>92416; 184146</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>304683; 413130</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>387867; 503869</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86158; 104268</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>112832; 179115</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97563; 170231</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>292252; 388336</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>517265; 631274</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>100655; 117280</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>231612; 325964</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>208819; 321933</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>620139; 765000</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>925926; 1096291</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>191366; 217529</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62513</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50325</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>190037</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>370565</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28784</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91693</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>73705</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>259910</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>404129</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26599</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>154206</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>124030</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>449947</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>774694</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>55383</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43376; 87614</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32402; 77221</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>146725; 241109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>316384; 436973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23750; 33802</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68283; 121584</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49446; 106799</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>221005; 302311</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>355498; 456591</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22196; 30958</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>118777; 193655</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>93257; 162186</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>396270; 515461</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>701648; 860862</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>48801; 61666</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25031</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7483</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>79205</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>111030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24475</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94507</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>125462</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49506</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24549</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>173713</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>236493</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12167; 48579</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23514</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55789; 110517</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81048; 147170</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12430; 43545</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6734; 34446</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72393; 125987</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99579; 158098</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31267; 76952</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11740; 46728</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>138468; 215910</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>194491; 276518</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>920.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>215871</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>184539</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>627815</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>925175</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>123457</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>260084</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>221381</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>690873</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1102468</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>135642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>475956</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>405920</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1318687</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2027643</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>259099</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>172504; 261147</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141761; 241334</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>557386; 711424</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>840663; 1017717</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>113749; 134572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>215187; 304908</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>178214; 270242</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>626768; 762948</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1013049; 1177034</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>126500; 145745</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>411449; 540431</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>344516; 476736</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1218590; 1423373</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1894556; 2142945</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>244565; 273830</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>